--- a/inst/extdata/miljogifter-leveransmall_2024.xlsx
+++ b/inst/extdata/miljogifter-leveransmall_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\projects\data\contaminants\MoCiS2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\projects\data\contaminants\MoCiS2.wtse\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA50E26-E913-4727-A8B8-BE60CC75C5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF3477-9089-4341-9A3F-6B0FC3799BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15720" tabRatio="631" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Försättsflik-version" sheetId="23" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="PROVDATA_MARK" sheetId="16" state="hidden" r:id="rId18"/>
     <sheet name="PROVDATA_PRODUKTER" sheetId="17" state="hidden" r:id="rId19"/>
     <sheet name="PROVDATA_SEDIMENT" sheetId="18" state="hidden" r:id="rId20"/>
-    <sheet name="PROVDATA_SLAM" sheetId="19" state="hidden" r:id="rId21"/>
+    <sheet name="PROVDATA_AVLOPP_SLAM" sheetId="27" state="hidden" r:id="rId21"/>
     <sheet name="PROVDATA_VATTEN" sheetId="20" state="hidden" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="430">
   <si>
     <t>Senast uppdaterad:</t>
   </si>
@@ -1870,20 +1870,93 @@
     <t>Endast värdena PART, DISS eller TOT_VATTEN från kodlistan är tillåtna.</t>
   </si>
   <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
-    <t>2.2.0</t>
+    <t>RENINGSSTEG_OVERGRIP</t>
+  </si>
+  <si>
+    <t>RENINGSSTEG_SPEC</t>
+  </si>
+  <si>
+    <t>RENINGSSTEG_FRITEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Här anges vad provet omfattar prov, om det är  samlingsprov, delprov eller stickprov
+</t>
+  </si>
+  <si>
+    <t>Här anges antal prover som samlingsprovet avser</t>
+  </si>
+  <si>
+    <t>Vilka huvudsaklig reningssteg har provet passerat. Om annan ordning än nedan ange annat och beskriv i Reningssteg_fritext</t>
+  </si>
+  <si>
+    <t>Om annat angets i kolumn M, N eller om ytterliggare kommentarer krävs</t>
+  </si>
+  <si>
+    <t>enligt kodlista, fler val</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Steg 1; steg 2, N</t>
+  </si>
+  <si>
+    <t>Mekanisk;BioBadd;N_ren_extkol</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>DISS</t>
+  </si>
+  <si>
+    <t>Versionshistorik</t>
+  </si>
+  <si>
+    <t>2.3.0</t>
+  </si>
+  <si>
+    <t>Ändring:</t>
+  </si>
+  <si>
+    <t>Fliken PROVDATA_SLAM har ersatts</t>
+  </si>
+  <si>
+    <t>av PROVDATA_AVLOPP_SLAM.</t>
+  </si>
+  <si>
+    <t>PROV_OMFATT</t>
+  </si>
+  <si>
+    <t>VATTENTYP-AVLOPP_SLAM</t>
+  </si>
+  <si>
+    <t>Ange om specifika reningssteg andra, om flera separera med ~  (tilde)
+ange rätt ordning för ordning se RENINGSSTEG_OVER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2302,134 +2375,134 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2438,106 +2511,105 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="8" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="8" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2614,10 +2686,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1457325" cy="876300"/>
     <xdr:pic>
@@ -2642,7 +2714,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4791075" y="381000"/>
+          <a:off x="7124700" y="428625"/>
           <a:ext cx="1457325" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3004,12 +3076,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAE499E-EBDE-4EEF-B093-5E752E7D79A5}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3017,10 +3091,10 @@
     <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="9.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26" style="2" customWidth="1"/>
     <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3197,12 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="66" t="s">
+        <v>422</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -3216,14 +3291,17 @@
         <v>1</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="G13" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67" t="s">
+        <v>423</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="3"/>
@@ -3235,9 +3313,12 @@
       <c r="D14" s="8"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>425</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -3252,7 +3333,9 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="67" t="s">
+        <v>426</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -3267,12 +3350,12 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3473,12 +3556,6 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3488,6 +3565,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3579,6 +3657,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3670,6 +3749,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3761,6 +3841,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3883,6 +3964,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,6 +4056,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4097,6 +4180,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4188,6 +4272,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4279,6 +4364,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4402,6 +4488,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4493,7 +4580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7DD70D-06C1-43EF-96AD-83FD50CCCB9F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:XFC43"/>
@@ -4518,10 +4605,10 @@
     </row>
     <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
@@ -4552,10 +4639,10 @@
       <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="69"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -4755,10 +4842,10 @@
       <c r="A34" s="18"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="69"/>
     </row>
     <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
@@ -4800,6 +4887,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5017,24 +5105,34 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772CA8E7-7BCD-474C-975E-9A466A94431F}">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>157</v>
       </c>
@@ -5048,13 +5146,40 @@
         <v>319</v>
       </c>
       <c r="E1" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="J1" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1" s="54" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
@@ -5068,13 +5193,40 @@
         <v>322</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>172</v>
       </c>
@@ -5091,10 +5243,37 @@
         <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>173</v>
       </c>
@@ -5111,10 +5290,37 @@
         <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>175</v>
       </c>
@@ -5128,19 +5334,61 @@
         <v>325</v>
       </c>
       <c r="E5" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="J5" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="N5" s="56" t="s">
         <v>181</v>
       </c>
+      <c r="O5" s="56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5344,12 +5592,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F83A7F-7F67-40F4-B730-B1BCE45CCB58}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -5363,10 +5611,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
@@ -5376,10 +5624,10 @@
       <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="39"/>
       <c r="D3" s="51"/>
     </row>
@@ -5394,10 +5642,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="48" t="s">
         <v>70</v>
       </c>
@@ -5406,8 +5654,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="48" t="s">
         <v>72</v>
       </c>
@@ -5416,8 +5664,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="48" t="s">
         <v>74</v>
       </c>
@@ -5426,8 +5674,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="48" t="s">
         <v>76</v>
       </c>
@@ -5436,8 +5684,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="48" t="s">
         <v>78</v>
       </c>
@@ -5446,10 +5694,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="41" t="s">
         <v>81</v>
       </c>
@@ -5458,9 +5706,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="70" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="71" t="s">
         <v>83</v>
       </c>
       <c r="D11" s="45" t="s">
@@ -5468,16 +5716,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="44" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="41" t="s">
         <v>86</v>
       </c>
@@ -5486,8 +5734,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="42" t="s">
         <v>88</v>
       </c>
@@ -5496,8 +5744,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="84"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="41" t="s">
         <v>89</v>
       </c>
@@ -5507,10 +5755,10 @@
     </row>
     <row r="16" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="39"/>
       <c r="D17" s="38"/>
     </row>
@@ -6171,6 +6419,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6319,9 +6568,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6627,32 +6879,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="119.7109375" customWidth="1"/>
+    <col min="3" max="3" width="134.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" customWidth="1"/>
-    <col min="25" max="25" width="31.7109375" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" customWidth="1"/>
-    <col min="27" max="28" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="158.7109375" customWidth="1"/>
+    <col min="8" max="8" width="41.7109375" customWidth="1"/>
+    <col min="9" max="9" width="109.7109375" customWidth="1"/>
+    <col min="10" max="10" width="241.7109375" customWidth="1"/>
+    <col min="11" max="11" width="89.7109375" customWidth="1"/>
+    <col min="12" max="12" width="67.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" customWidth="1"/>
+    <col min="14" max="14" width="116.7109375" customWidth="1"/>
+    <col min="15" max="15" width="113.7109375" customWidth="1"/>
+    <col min="16" max="16" width="36.7109375" customWidth="1"/>
+    <col min="17" max="17" width="79.7109375" customWidth="1"/>
+    <col min="18" max="18" width="39.7109375" customWidth="1"/>
+    <col min="19" max="19" width="158.7109375" customWidth="1"/>
+    <col min="20" max="20" width="42.7109375" customWidth="1"/>
+    <col min="21" max="21" width="27.7109375" customWidth="1"/>
+    <col min="22" max="22" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.7109375" customWidth="1"/>
+    <col min="24" max="24" width="29.7109375" customWidth="1"/>
+    <col min="25" max="25" width="89.7109375" customWidth="1"/>
+    <col min="26" max="26" width="42.7109375" customWidth="1"/>
+    <col min="27" max="27" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="55" customFormat="1" x14ac:dyDescent="0.25">
@@ -6741,89 +7004,89 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="67" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="R2" s="66" t="s">
+      <c r="R2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S2" s="66" t="s">
+      <c r="S2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="T2" s="66" t="s">
+      <c r="T2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="U2" s="66" t="s">
+      <c r="U2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="W2" s="66" t="s">
+      <c r="W2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="X2" s="66" t="s">
+      <c r="X2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Y2" s="66" t="s">
+      <c r="Y2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Z2" s="66" t="s">
+      <c r="Z2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AA2" s="66" t="s">
+      <c r="AA2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="1" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7090,6 +7353,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7165,6 +7429,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7256,10 +7521,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7269,7 +7535,7 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="75.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7296,26 +7562,26 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7613,16 +7879,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835286ED-165F-4B83-B249-EF42BD745D49}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0bb04f6f-b701-4ca5-a95f-d8504cb0525d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0bb04f6f-b701-4ca5-a95f-d8504cb0525d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="a5c825f6-757b-46ac-9705-2d52503b9c2f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
